--- a/SamplePageData/SamplePageData.xlsx
+++ b/SamplePageData/SamplePageData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManojNS\eclipse-workspace\NewFrameWork\SamplePageData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manoj\SamplePage\SamplePageData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F01F5D-977B-4BB5-818E-E25E7F7A036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47E9601-591A-4F2B-B36C-DAE2FF376357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39C5F90A-E468-4E2D-B081-A7ED185AD0A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39C5F90A-E468-4E2D-B081-A7ED185AD0A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,20 +521,21 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -569,7 +570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -604,7 +605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -641,15 +642,16 @@
       <selection sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="22" width="8.88671875" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -663,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45415</v>
       </c>
@@ -677,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
     </row>
   </sheetData>
